--- a/medicine/Mort/Liste_des_Mises_au_tombeau_de_France/Liste_des_Mises_au_tombeau_de_France.xlsx
+++ b/medicine/Mort/Liste_des_Mises_au_tombeau_de_France/Liste_des_Mises_au_tombeau_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Mises au tombeau - dernier épisode de la Passion du Christ - conservées en France sont, pour les plus connues, des groupes de statues monumentales en ronde-bosse, en bas ou hauts-reliefs ; mais il en existe aussi en mosaïque, en céramique, sous forme de vitrail, de peinture murale ou comme élément de retable. Lorsqu'elles sont peintes sur bois, sur toile, sur parchemin… elles se retrouvent plutôt dans la sphère privée : chapelles, enluminures de livres d'heures.
-La représentation sculptée de la Mise au tombeau apparaît vers le milieu du XVe siècle et s'est répandue jusqu'à la fin du XVIe siècle et parfois même au-delà. On en dénombre encore 450 en Europe[1]. Elles sont révélatrices de la mentalité de la société de la fin du Moyen Âge et du début de la Renaissance, période où, dans l'art, domine la représentation de la souffrance, la douleur et la mort. Cependant, la plupart, loin d'être lugubres, sont imprégnées de sérénité et invitent à la méditation[1].
+La représentation sculptée de la Mise au tombeau apparaît vers le milieu du XVe siècle et s'est répandue jusqu'à la fin du XVIe siècle et parfois même au-delà. On en dénombre encore 450 en Europe. Elles sont révélatrices de la mentalité de la société de la fin du Moyen Âge et du début de la Renaissance, période où, dans l'art, domine la représentation de la souffrance, la douleur et la mort. Cependant, la plupart, loin d'être lugubres, sont imprégnées de sérénité et invitent à la méditation.
 Une mise au tombeau, lorsqu'elle est complète, se compose de sept personnages entourant le huitième, Jésus-Christ, allongé dans un sarcophage et/ou un linceul. Ce sont : Marie, sa mère, l'apôtre Jean, les trois saintes femmes (Marie Madeleine, Marie Salomé et Marie Cléophas), Joseph d'Arimathie et Nicodème.
 Les œuvres dans cette liste sont classées par région, département, commune, puis par lieu ou édifice (église, musée ou autre) et enfin par ordre chronologique.
 </t>
@@ -511,414 +523,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Auvergne-Rhône-Alpes</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Allier  03 (3)
-Cantal 15 (1)
-Drôme 26 (1)
-Loire 42 (1)
-Haute-Loire 43 (1)
-Puy-de-Dôme  63 (1)
-Rhône 69 (1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Bourgogne-Franche-Comté</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Côte-d'Or 21 (4)
-Jura 39 (1)
-Nièvre 58 (1)
-Haute-Saône 70 (2)
-Yonne 89 (4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Bretagne</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Finistère 29 (6)
-Morbihan 56 (1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Centre-Val de Loire</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cher 18 (1)
-Loiret 45 (1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Corse</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Grand Est</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Aube 10 (7)
-Marne 51 (2)
-Haute-Marne 52 (5)
-Meurthe-et-Moselle 54 (7)
-Meuse 55 (6)
-Moselle 57 (4)
-Bas-Rhin 67 (2)
-Haut-Rhin 68 (1)
-Vosges 88 (8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Hauts-de-France</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Aisne 02 (2)
-Oise 60 (8)
-Pas-de-Calais 62 (2)
-Somme 80 (16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Île-de-France</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Paris 75 (2)
-Yvelines 78 (1)
-Val-d'Oise 95 (1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Normandie</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Eure 27 (4)
-Manche  50 (1)
-Seine-Maritime 76 (14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Nouvelle Aquitaine</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Charente 16 (1)
-Corrèze 19 (1)
-Dordogne 24 (2)
-Gironde 33 (2)
-Lot-et-Garonne 47 (1)
-Deux-Sèvres 79 (1)
-Vienne 86 (1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Occitanie</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Ariège 09 (1)
-Aude  11 (1)
-Aveyron 12 (3)
-Gers 32 (1)
-Hérault 34 (1)
-Lot 46 (1)
-Pyrénées-Orientales  66 (2)
-Tarn 81 (1)
-Tarn-et-Garonne 82 (1)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Pays de la Loire</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Mayenne 53 (2)
-Sarthe 72 (4)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_Mises_au_tombeau_de_France</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Provence-Alpes-Côte d'Azur</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Alpes-Maritimes 06 (1)
-Bouches-du-Rhône 13 (2)
-Vaucluse 84 (1)</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
